--- a/Projet RED - Gestion de projet - Groupe XX.xlsx
+++ b/Projet RED - Gestion de projet - Groupe XX.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Membre 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Emanuelle</t>
+    <t xml:space="preserve">Emanuel</t>
   </si>
   <si>
     <t xml:space="preserve">Membre 3</t>
@@ -378,116 +378,120 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -794,647 +798,651 @@
   </sheetPr>
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="17.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="52.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="26.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="26.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="26.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="17.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="52.63"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="14" t="n">
         <v>45912</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="14" t="n">
         <v>45912</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="14" t="n">
         <v>45912</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="14" t="n">
         <v>45912</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="13" t="n">
         <f aca="false">E7+1</f>
         <v>3</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="13" t="n">
         <f aca="false">E8+1</f>
         <v>4</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="13" t="n">
         <f aca="false">E9+1</f>
         <v>5</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="14" t="n">
         <v>45912</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="14" t="n">
         <v>45912</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="E11" s="12" t="n">
+      <c r="C11" s="16"/>
+      <c r="E11" s="13" t="n">
         <f aca="false">E10+1</f>
         <v>6</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="13" t="n">
         <f aca="false">E11+1</f>
         <v>7</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="13" t="n">
         <f aca="false">E12+1</f>
         <v>8</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="13" t="n">
         <f aca="false">E13+1</f>
         <v>9</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>45915</v>
+      </c>
+      <c r="K14" s="14" t="n">
+        <v>45916</v>
+      </c>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="13" t="n">
-        <v>45915</v>
-      </c>
-      <c r="K14" s="13" t="n">
-        <v>45916</v>
-      </c>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="13" t="n">
         <f aca="false">E14+1</f>
         <v>10</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+      <c r="F15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>45916</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="13" t="n">
         <f aca="false">E15+1</f>
         <v>11</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="13" t="n">
         <f aca="false">E16+1</f>
         <v>12</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="13" t="n">
         <f aca="false">E17+1</f>
         <v>13</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="13" t="n">
         <f aca="false">E18+1</f>
         <v>14</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="13" t="n">
         <f aca="false">E19+1</f>
         <v>15</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="13" t="n">
         <f aca="false">E20+1</f>
         <v>16</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="13" t="n">
         <f aca="false">E21+1</f>
         <v>17</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="13" t="n">
         <f aca="false">E22+1</f>
         <v>18</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="13" t="n">
         <f aca="false">E23+1</f>
         <v>19</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="13" t="n">
         <f aca="false">E24+1</f>
         <v>20</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="13" t="n">
         <f aca="false">E25+1</f>
         <v>21</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="13" t="n">
         <f aca="false">E26+1</f>
         <v>22</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="13" t="n">
         <f aca="false">E27+1</f>
         <v>23</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="14"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="13" t="n">
         <f aca="false">E28+1</f>
         <v>24</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="13" t="n">
         <f aca="false">E29+1</f>
         <v>25</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="13" t="n">
         <f aca="false">E30+1</f>
         <v>26</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="13" t="n">
         <f aca="false">E31+1</f>
         <v>27</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="13" t="n">
         <f aca="false">E32+1</f>
         <v>28</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="13" t="n">
         <f aca="false">E33+1</f>
         <v>29</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="14"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="12" t="n">
+      <c r="E35" s="13" t="n">
         <f aca="false">E34+1</f>
         <v>30</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="14"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="12" t="n">
+      <c r="E36" s="13" t="n">
         <f aca="false">E35+1</f>
         <v>31</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="22" t="n">
+      <c r="E37" s="23" t="n">
         <f aca="false">E36+1</f>
         <v>32</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="27"/>
+      <c r="I38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Projet RED - Gestion de projet - Groupe XX.xlsx
+++ b/Projet RED - Gestion de projet - Groupe XX.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -128,10 +128,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -378,7 +379,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,11 +468,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -798,8 +803,8 @@
   </sheetPr>
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1080,7 +1085,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
@@ -1097,16 +1102,18 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J15" s="14" t="n">
         <v>45916</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="22" t="n">
+        <v>45916</v>
+      </c>
       <c r="L15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -1116,14 +1123,20 @@
         <f aca="false">E15+1</f>
         <v>11</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>45916</v>
+      </c>
+      <c r="K16" s="14" t="n">
+        <v>45916</v>
+      </c>
       <c r="L16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,9 +1148,11 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="J17" s="14" t="n">
+        <v>45916</v>
+      </c>
       <c r="K17" s="14"/>
       <c r="L17" s="15"/>
     </row>
@@ -1427,22 +1442,22 @@
       <c r="L36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="23" t="n">
+      <c r="E37" s="24" t="n">
         <f aca="false">E36+1</f>
         <v>32</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="27"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="28"/>
+      <c r="I38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
